--- a/BaoCaoDoanhThu11111.xlsx
+++ b/BaoCaoDoanhThu11111.xlsx
@@ -17,7 +17,7 @@
     <t/>
   </si>
   <si>
-    <t>Báo cáo doanh thu 2021</t>
+    <t>Báo cáo doanh thu 2025</t>
   </si>
   <si>
     <t>Tháng</t>
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:D7"/>
+  <dimension ref="A3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -101,44 +101,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>101.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.0</v>
+        <v>8.94474934E8</v>
       </c>
       <c r="D5" t="n">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>420.0</v>
+        <v>8.0503641E7</v>
       </c>
     </row>
   </sheetData>
